--- a/IMP - Guedes.xlsx
+++ b/IMP - Guedes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucsdcloud-my.sharepoint.com/personal/cbezerra_ucsd_edu/Documents/IMP/Guedes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6F5D6F5-56A9-41BC-A481-166B2E5C691C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D908CAD-25BF-4FDB-84CB-5B8AE56BDF94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6440" tabRatio="842" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="2330" tabRatio="842" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graf1" sheetId="13239" r:id="rId1"/>
@@ -24,9 +24,6 @@
     <sheet name="faixa SM RTT+RTE+RTI" sheetId="13217" r:id="rId9"/>
     <sheet name="div+rend ME faixa rend total" sheetId="13218" r:id="rId10"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId11"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'div+rend ME faixa rend total'!$B$2:$W$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'faixa SM RTT+RTE+RTI'!$B$2:$W$49</definedName>
@@ -252,11 +249,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-    <numFmt numFmtId="173" formatCode="0.0"/>
-    <numFmt numFmtId="175" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="&quot;R$&quot;#,##0.00"/>
-    <numFmt numFmtId="184" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -640,7 +637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,16 +659,16 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -710,7 +707,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -728,6 +725,18 @@
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -737,18 +746,6 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="184" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2646,55 +2643,55 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>2.0186346180286342E-2</c:v>
+                  <c:v>2.6090402090126544E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5572459901605184E-3</c:v>
+                  <c:v>7.1781050336888284E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9661618715060325E-3</c:v>
+                  <c:v>1.158285336506714E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5123921708093272E-3</c:v>
+                  <c:v>5.7610543067724311E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4164665006387338E-2</c:v>
+                  <c:v>1.5704325360115925E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4112459152309919E-2</c:v>
+                  <c:v>3.6452007967434127E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0986271739878223E-2</c:v>
+                  <c:v>6.4307789578111826E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.584580376178535E-2</c:v>
+                  <c:v>0.10074162501223603</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.11989642503679691</c:v>
+                  <c:v>0.12673792932211458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13393203819684515</c:v>
+                  <c:v>0.14277657886787162</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.14234735694881198</c:v>
+                  <c:v>0.15407846592443439</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.14510548364545234</c:v>
+                  <c:v>0.16071074996541654</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.14508983070996359</c:v>
+                  <c:v>0.16559622349301886</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.14911803437571636</c:v>
+                  <c:v>0.17616540320978158</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.15149172662775462</c:v>
+                  <c:v>0.18367348363999683</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.15417209191118345</c:v>
+                  <c:v>0.18867808294736782</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.14608497615425806</c:v>
+                  <c:v>0.18287617106601181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2998,55 +2995,55 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1.7803457923429855E-2</c:v>
+                  <c:v>1.9564239476296541E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8876393147245885E-3</c:v>
+                  <c:v>5.3710322139830643E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8905345097710841E-3</c:v>
+                  <c:v>8.6709170437044864E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.765293577445282E-3</c:v>
+                  <c:v>4.1376852499398703E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6427877280589515E-3</c:v>
+                  <c:v>5.1019645363285177E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0548212154382117E-3</c:v>
+                  <c:v>7.7525507861958363E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9348977879498858E-2</c:v>
+                  <c:v>5.0339562559994819E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10476915454241505</c:v>
+                  <c:v>0.10622924771828736</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.14307384737467846</c:v>
+                  <c:v>0.14511420653173998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.17163011356830382</c:v>
+                  <c:v>0.17426784334169007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19650488968037386</c:v>
+                  <c:v>0.20000348803282472</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.21930715560401495</c:v>
+                  <c:v>0.22396115371706951</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.24236057012067005</c:v>
+                  <c:v>0.24847624359660428</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.26913186243576342</c:v>
+                  <c:v>0.27719826777200501</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.29012890976735478</c:v>
+                  <c:v>0.29972655669877213</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.29919946234062844</c:v>
+                  <c:v>0.30949027147382674</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.30967709368781765</c:v>
+                  <c:v>0.32064942496275844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3141,55 +3138,55 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>2.0186346180286342E-2</c:v>
+                  <c:v>2.6090402090126544E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5572459901605184E-3</c:v>
+                  <c:v>7.1781050336888284E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9661618715060325E-3</c:v>
+                  <c:v>1.158285336506714E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5123921708093272E-3</c:v>
+                  <c:v>5.7610543067724311E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4164665006387338E-2</c:v>
+                  <c:v>1.5704325360115925E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4112459152309919E-2</c:v>
+                  <c:v>3.6452007967434127E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0986271739878223E-2</c:v>
+                  <c:v>6.4307789578111826E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.584580376178535E-2</c:v>
+                  <c:v>0.10074162501223603</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.11989642503679691</c:v>
+                  <c:v>0.12673792932211458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13393203819684515</c:v>
+                  <c:v>0.14277657886787162</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.14234735694881198</c:v>
+                  <c:v>0.15407846592443439</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.14510548364545234</c:v>
+                  <c:v>0.16071074996541654</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.14508983070996359</c:v>
+                  <c:v>0.16559622349301886</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.14911803437571636</c:v>
+                  <c:v>0.17616540320978158</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.15149172662775462</c:v>
+                  <c:v>0.18367348363999683</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.15417209191118345</c:v>
+                  <c:v>0.18867808294736782</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.14608497615425806</c:v>
+                  <c:v>0.18287617106601181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3385,7 +3382,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A287B463-B304-497E-9FD5-307A914B5AE5}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0"/>
+    <sheetView zoomScale="56" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -3451,7 +3448,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9294091" cy="6067136"/>
+    <xdr:ext cx="9309554" cy="6077857"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3899,7 +3896,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9294091" cy="6067136"/>
+    <xdr:ext cx="9309554" cy="6077857"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6709,144 +6706,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Plan11"/>
-      <sheetName val="2007"/>
-      <sheetName val="2008"/>
-      <sheetName val="2009"/>
-      <sheetName val="2010"/>
-      <sheetName val="2011"/>
-      <sheetName val="2012"/>
-      <sheetName val="2013"/>
-      <sheetName val="2014"/>
-      <sheetName val="2015"/>
-      <sheetName val="2016"/>
-      <sheetName val="Plan1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="11">
-          <cell r="B11">
-            <v>2007</v>
-          </cell>
-          <cell r="C11">
-            <v>2008</v>
-          </cell>
-          <cell r="D11">
-            <v>2009</v>
-          </cell>
-          <cell r="E11">
-            <v>2010</v>
-          </cell>
-          <cell r="F11">
-            <v>2011</v>
-          </cell>
-          <cell r="G11">
-            <v>2012</v>
-          </cell>
-          <cell r="H11">
-            <v>2013</v>
-          </cell>
-          <cell r="I11">
-            <v>2014</v>
-          </cell>
-          <cell r="J11">
-            <v>2015</v>
-          </cell>
-          <cell r="K11">
-            <v>2016</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Membro do Ministério Público (Procurador e Promotor)</v>
-          </cell>
-          <cell r="B12">
-            <v>54580.850344129001</v>
-          </cell>
-          <cell r="C12">
-            <v>57104.023953677381</v>
-          </cell>
-          <cell r="D12">
-            <v>55564.097767206826</v>
-          </cell>
-          <cell r="E12">
-            <v>57409.10703710535</v>
-          </cell>
-          <cell r="F12">
-            <v>56513.218699591715</v>
-          </cell>
-          <cell r="G12">
-            <v>54844.089088866858</v>
-          </cell>
-          <cell r="H12">
-            <v>55007.857758724102</v>
-          </cell>
-          <cell r="I12">
-            <v>54806.632236964091</v>
-          </cell>
-          <cell r="J12">
-            <v>56651.123551612589</v>
-          </cell>
-          <cell r="K12">
-            <v>54923.490346008795</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Membro do Poder Judiciário e de Tribunal de Contas</v>
-          </cell>
-          <cell r="B13">
-            <v>53776.085443409502</v>
-          </cell>
-          <cell r="C13">
-            <v>55997.276837418111</v>
-          </cell>
-          <cell r="D13">
-            <v>53603.844714908751</v>
-          </cell>
-          <cell r="E13">
-            <v>59462.169704657295</v>
-          </cell>
-          <cell r="F13">
-            <v>55360.57077861829</v>
-          </cell>
-          <cell r="G13">
-            <v>55735.573544837047</v>
-          </cell>
-          <cell r="H13">
-            <v>54077.660778595986</v>
-          </cell>
-          <cell r="I13">
-            <v>53192.380083777876</v>
-          </cell>
-          <cell r="J13">
-            <v>57294.587313328186</v>
-          </cell>
-          <cell r="K13">
-            <v>54422.499950117424</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7223,8 +7082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85E60F1-F183-472E-8720-4FB2341F7787}">
   <dimension ref="A2:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -7244,23 +7103,23 @@
       <c r="A2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="53">
+      <c r="B2" s="50">
         <v>0.15</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="50"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="54">
+      <c r="B3" s="51">
         <v>0.09</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="51"/>
     </row>
     <row r="4" spans="1:12" ht="13" x14ac:dyDescent="0.3">
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
@@ -7302,41 +7161,41 @@
         <f>'faixa SM RTT+RTE+RTI'!C10</f>
         <v>Até 1/2</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D10</f>
         <v>1304128</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="42">
         <f>consolidado!C6</f>
         <v>509.31960864000001</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="42">
         <f>'div+rend ME faixa rend total'!G10</f>
         <v>45.338251110000002</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P10</f>
         <v>1.2188060000000001E-2</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="42">
         <f>consolidado!I6</f>
         <v>0</v>
       </c>
-      <c r="H6" s="45">
-        <f>D6*($B$2) + ($B$3 * D6*(1-$B$2))</f>
-        <v>10.269113876415</v>
-      </c>
-      <c r="I6" s="55">
-        <f>D6*20%</f>
-        <v>9.067650222000001</v>
-      </c>
-      <c r="K6" s="56">
+      <c r="H6" s="42">
+        <f>(D6/(1-$B$3)/(1-$B$2))*$B$2+(D6/(1-$B$3)/(1-$B$2))*(1-$B$2)*$B$3</f>
+        <v>13.276165321803489</v>
+      </c>
+      <c r="I6" s="52">
+        <f>(D6/(1-$B$3)/(1-$B$2))*(1-$B$2)*20%</f>
+        <v>9.9644507934065931</v>
+      </c>
+      <c r="K6" s="53">
         <f>(H6+E6)/$C6</f>
-        <v>2.0186346180286342E-2</v>
-      </c>
-      <c r="L6" s="56">
+        <v>2.6090402090126544E-2</v>
+      </c>
+      <c r="L6" s="53">
         <f t="shared" ref="L6:L23" si="0">(I6+F6)/$C6</f>
-        <v>1.7803457923429855E-2</v>
+        <v>1.9564239476296541E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -7344,41 +7203,41 @@
         <f>'faixa SM RTT+RTE+RTI'!C11</f>
         <v>De 1/2 a 1</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D11</f>
         <v>588273</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="42">
         <f>consolidado!C7</f>
         <v>5622.7779605600008</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="42">
         <f>'div+rend ME faixa rend total'!G11</f>
         <v>137.41055309000001</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P11</f>
         <v>0.12367</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="42">
         <f>consolidado!I7</f>
         <v>0</v>
       </c>
-      <c r="H7" s="45">
-        <f t="shared" ref="H7:H23" si="1">D7*($B$2) + ($B$3 * D7*(1-$B$2))</f>
-        <v>31.123490274885</v>
-      </c>
-      <c r="I7" s="55">
-        <f t="shared" ref="I7:I23" si="2">D7*20%</f>
-        <v>27.482110618000004</v>
-      </c>
-      <c r="K7" s="56">
+      <c r="H7" s="42">
+        <f t="shared" ref="H7:H23" si="1">(D7/(1-$B$3)/(1-$B$2))*$B$2+(D7/(1-$B$3)/(1-$B$2))*(1-$B$2)*$B$3</f>
+        <v>40.237220782010347</v>
+      </c>
+      <c r="I7" s="52">
+        <f t="shared" ref="I7:I23" si="2">(D7/(1-$B$3)/(1-$B$2))*(1-$B$2)*20%</f>
+        <v>30.200121558241761</v>
+      </c>
+      <c r="K7" s="53">
         <f t="shared" ref="K7:K23" si="3">(H7+E7)/$C7</f>
-        <v>5.5572459901605184E-3</v>
-      </c>
-      <c r="L7" s="56">
+        <v>7.1781050336888284E-3</v>
+      </c>
+      <c r="L7" s="53">
         <f t="shared" si="0"/>
-        <v>4.8876393147245885E-3</v>
+        <v>5.3710322139830643E-3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -7386,41 +7245,41 @@
         <f>'faixa SM RTT+RTE+RTI'!C12</f>
         <v>De 1 a 2</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D12</f>
         <v>1360094</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="42">
         <f>consolidado!C8</f>
         <v>21952.724546290003</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="42">
         <f>'div+rend ME faixa rend total'!G12</f>
         <v>866.09365307999997</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P12</f>
         <v>0.66146938</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="42">
         <f>consolidado!I8</f>
         <v>0</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="42">
         <f t="shared" si="1"/>
-        <v>196.17021242261998</v>
-      </c>
-      <c r="I8" s="55">
+        <v>253.61372000338719</v>
+      </c>
+      <c r="I8" s="52">
         <f t="shared" si="2"/>
-        <v>173.21873061600002</v>
-      </c>
-      <c r="K8" s="56">
+        <v>190.35025342417583</v>
+      </c>
+      <c r="K8" s="53">
         <f t="shared" si="3"/>
-        <v>8.9661618715060325E-3</v>
-      </c>
-      <c r="L8" s="56">
+        <v>1.158285336506714E-2</v>
+      </c>
+      <c r="L8" s="53">
         <f t="shared" si="0"/>
-        <v>7.8905345097710841E-3</v>
+        <v>8.6709170437044864E-3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -7428,41 +7287,41 @@
         <f>'faixa SM RTT+RTE+RTI'!C13</f>
         <v>De 2 a 3</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D13</f>
         <v>3994153</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="42">
         <f>consolidado!C9</f>
         <v>108799.99473984001</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="42">
         <f>'div+rend ME faixa rend total'!G13</f>
         <v>2048.3196071000002</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P13</f>
         <v>27.00385344</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="42">
         <f>consolidado!I9</f>
         <v>0</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="42">
         <f t="shared" si="1"/>
-        <v>463.94439100815003</v>
-      </c>
-      <c r="I9" s="55">
+        <v>599.79882483277322</v>
+      </c>
+      <c r="I9" s="52">
         <f t="shared" si="2"/>
-        <v>409.66392142000007</v>
-      </c>
-      <c r="K9" s="56">
+        <v>450.18013342857148</v>
+      </c>
+      <c r="K9" s="53">
         <f t="shared" si="3"/>
-        <v>4.5123921708093272E-3</v>
-      </c>
-      <c r="L9" s="56">
+        <v>5.7610543067724311E-3</v>
+      </c>
+      <c r="L9" s="53">
         <f t="shared" si="0"/>
-        <v>3.765293577445282E-3</v>
+        <v>4.1376852499398703E-3</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -7470,41 +7329,41 @@
         <f>'faixa SM RTT+RTE+RTI'!C14</f>
         <v>De 3 a 5</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D14</f>
         <v>7605675</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="42">
         <f>consolidado!C10</f>
         <v>313949.84339061996</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="42">
         <f>'div+rend ME faixa rend total'!G14</f>
         <v>7288.0124005999996</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P14</f>
         <v>2796.2595517</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="42">
         <f>consolidado!I10</f>
         <v>0</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="42">
         <f t="shared" si="1"/>
-        <v>1650.7348087358998</v>
-      </c>
-      <c r="I10" s="55">
+        <v>2134.1109356637362</v>
+      </c>
+      <c r="I10" s="52">
         <f t="shared" si="2"/>
-        <v>1457.6024801200001</v>
-      </c>
-      <c r="K10" s="56">
+        <v>1601.7609671648352</v>
+      </c>
+      <c r="K10" s="53">
         <f t="shared" si="3"/>
-        <v>1.4164665006387338E-2</v>
-      </c>
-      <c r="L10" s="56">
+        <v>1.5704325360115925E-2</v>
+      </c>
+      <c r="L10" s="53">
         <f t="shared" si="0"/>
-        <v>4.6427877280589515E-3</v>
+        <v>5.1019645363285177E-3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -7512,41 +7371,41 @@
         <f>'faixa SM RTT+RTE+RTI'!C15</f>
         <v>De 5 a 7</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D15</f>
         <v>4219050</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="42">
         <f>consolidado!C11</f>
         <v>262701.67049710004</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="42">
         <f>'div+rend ME faixa rend total'!G15</f>
         <v>9266.5665917699989</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P15</f>
         <v>6862.5226710400002</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="42">
         <f>consolidado!I11</f>
         <v>0</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="42">
         <f t="shared" si="1"/>
-        <v>2098.8773330359045</v>
-      </c>
-      <c r="I11" s="55">
+        <v>2713.4807149785452</v>
+      </c>
+      <c r="I11" s="52">
         <f t="shared" si="2"/>
-        <v>1853.3133183539999</v>
-      </c>
-      <c r="K11" s="56">
+        <v>2036.6080421472525</v>
+      </c>
+      <c r="K11" s="53">
         <f t="shared" si="3"/>
-        <v>3.4112459152309919E-2</v>
-      </c>
-      <c r="L11" s="56">
+        <v>3.6452007967434127E-2</v>
+      </c>
+      <c r="L11" s="53">
         <f t="shared" si="0"/>
-        <v>7.0548212154382117E-3</v>
+        <v>7.7525507861958363E-3</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -7554,41 +7413,41 @@
         <f>'faixa SM RTT+RTE+RTI'!C16</f>
         <v>De 7 a 10</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D16</f>
         <v>3202633</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="42">
         <f>consolidado!C12</f>
         <v>281299.67879360996</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="42">
         <f>'div+rend ME faixa rend total'!G16</f>
         <v>14087.363817870002</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P16</f>
         <v>13964.630746500003</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="42">
         <f>consolidado!I12</f>
         <v>11064.378862721991</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="42">
         <f t="shared" si="1"/>
-        <v>3190.7879047475553</v>
-      </c>
-      <c r="I12" s="55">
+        <v>4125.1298057499098</v>
+      </c>
+      <c r="I12" s="52">
         <f t="shared" si="2"/>
-        <v>2817.4727635740005</v>
-      </c>
-      <c r="K12" s="56">
+        <v>3096.1239160153855</v>
+      </c>
+      <c r="K12" s="53">
         <f t="shared" si="3"/>
-        <v>6.0986271739878223E-2</v>
-      </c>
-      <c r="L12" s="56">
+        <v>6.4307789578111826E-2</v>
+      </c>
+      <c r="L12" s="53">
         <f t="shared" si="0"/>
-        <v>4.9348977879498858E-2</v>
+        <v>5.0339562559994819E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -7596,41 +7455,41 @@
         <f>'faixa SM RTT+RTE+RTI'!C17</f>
         <v>De 10 a 15</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D17</f>
         <v>2441109</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="42">
         <f>consolidado!C13</f>
         <v>313189.14796660002</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="42">
         <f>'div+rend ME faixa rend total'!G17</f>
         <v>23118.314295</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P17</f>
         <v>24781.567428510003</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="42">
         <f>consolidado!I13</f>
         <v>28188.899385320008</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="42">
         <f t="shared" si="1"/>
-        <v>5236.2981878174996</v>
-      </c>
-      <c r="I13" s="55">
+        <v>6769.6162738429221</v>
+      </c>
+      <c r="I13" s="52">
         <f t="shared" si="2"/>
-        <v>4623.662859</v>
-      </c>
-      <c r="K13" s="56">
+        <v>5080.9481967032971</v>
+      </c>
+      <c r="K13" s="53">
         <f t="shared" si="3"/>
-        <v>9.584580376178535E-2</v>
-      </c>
-      <c r="L13" s="56">
+        <v>0.10074162501223603</v>
+      </c>
+      <c r="L13" s="53">
         <f t="shared" si="0"/>
-        <v>0.10476915454241505</v>
+        <v>0.10622924771828736</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -7638,41 +7497,41 @@
         <f>'faixa SM RTT+RTE+RTI'!C18</f>
         <v>De 15 a 20</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D18</f>
         <v>1121037</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="42">
         <f>consolidado!C14</f>
         <v>203981.40950429998</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="42">
         <f>'div+rend ME faixa rend total'!G18</f>
         <v>21040.986469150001</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P18</f>
         <v>19690.858338270002</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="42">
         <f>consolidado!I14</f>
         <v>24976.20775686</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="42">
         <f t="shared" si="1"/>
-        <v>4765.783435262475</v>
-      </c>
-      <c r="I14" s="55">
+        <v>6161.3231225112795</v>
+      </c>
+      <c r="I14" s="52">
         <f t="shared" si="2"/>
-        <v>4208.1972938300005</v>
-      </c>
-      <c r="K14" s="56">
+        <v>4624.392630582418</v>
+      </c>
+      <c r="K14" s="53">
         <f t="shared" si="3"/>
-        <v>0.11989642503679691</v>
-      </c>
-      <c r="L14" s="56">
+        <v>0.12673792932211458</v>
+      </c>
+      <c r="L14" s="53">
         <f t="shared" si="0"/>
-        <v>0.14307384737467846</v>
+        <v>0.14511420653173998</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -7680,41 +7539,41 @@
         <f>'faixa SM RTT+RTE+RTI'!C19</f>
         <v>De 20 a 30</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D19</f>
         <v>1038518</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="42">
         <f>consolidado!C15</f>
         <v>266269.90166263992</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="42">
         <f>'div+rend ME faixa rend total'!G19</f>
         <v>35507.595728259999</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P19</f>
         <v>27619.600207700001</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="42">
         <f>consolidado!I15</f>
         <v>38598.414316527982</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="42">
         <f t="shared" si="1"/>
-        <v>8042.4704324508893</v>
-      </c>
-      <c r="I15" s="55">
+        <v>10397.505407176326</v>
+      </c>
+      <c r="I15" s="52">
         <f t="shared" si="2"/>
-        <v>7101.5191456520006</v>
-      </c>
-      <c r="K15" s="56">
+        <v>7803.8671930241753</v>
+      </c>
+      <c r="K15" s="53">
         <f t="shared" si="3"/>
-        <v>0.13393203819684515</v>
-      </c>
-      <c r="L15" s="56">
+        <v>0.14277657886787162</v>
+      </c>
+      <c r="L15" s="53">
         <f t="shared" si="0"/>
-        <v>0.17163011356830382</v>
+        <v>0.17426784334169007</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -7722,41 +7581,41 @@
         <f>'faixa SM RTT+RTE+RTI'!C20</f>
         <v>De 30 a 40</v>
       </c>
-      <c r="B16" s="46">
+      <c r="B16" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D20</f>
         <v>449733</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="42">
         <f>consolidado!C16</f>
         <v>163279.14443543</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="42">
         <f>'div+rend ME faixa rend total'!G20</f>
         <v>28879.767366519998</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P20</f>
         <v>16701.087346730001</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="42">
         <f>consolidado!I16</f>
         <v>26309.196791086</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="42">
         <f t="shared" si="1"/>
-        <v>6541.2673085167789</v>
-      </c>
-      <c r="I16" s="55">
+        <v>8456.7127453352023</v>
+      </c>
+      <c r="I16" s="52">
         <f t="shared" si="2"/>
-        <v>5775.953473304</v>
-      </c>
-      <c r="K16" s="56">
+        <v>6347.2016190153845</v>
+      </c>
+      <c r="K16" s="53">
         <f t="shared" si="3"/>
-        <v>0.14234735694881198</v>
-      </c>
-      <c r="L16" s="56">
+        <v>0.15407846592443439</v>
+      </c>
+      <c r="L16" s="53">
         <f t="shared" si="0"/>
-        <v>0.19650488968037386</v>
+        <v>0.20000348803282472</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -7764,41 +7623,41 @@
         <f>'faixa SM RTT+RTE+RTI'!C21</f>
         <v>De 40 a 60</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D21</f>
         <v>354401</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="42">
         <f>consolidado!C17</f>
         <v>180227.68898876</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="42">
         <f>'div+rend ME faixa rend total'!G21</f>
         <v>42404.954737289998</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P21</f>
         <v>16547.303729020001</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="42">
         <f>consolidado!I17</f>
         <v>31044.230885752004</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="42">
         <f t="shared" si="1"/>
-        <v>9604.7222479961838</v>
-      </c>
-      <c r="I17" s="55">
+        <v>12417.22333289746</v>
+      </c>
+      <c r="I17" s="52">
         <f t="shared" si="2"/>
-        <v>8480.9909474579999</v>
-      </c>
-      <c r="K17" s="56">
+        <v>9319.7702719318677</v>
+      </c>
+      <c r="K17" s="53">
         <f t="shared" si="3"/>
-        <v>0.14510548364545234</v>
-      </c>
-      <c r="L17" s="56">
+        <v>0.16071074996541654</v>
+      </c>
+      <c r="L17" s="53">
         <f t="shared" si="0"/>
-        <v>0.21930715560401495</v>
+        <v>0.22396115371706951</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -7806,41 +7665,41 @@
         <f>'faixa SM RTT+RTE+RTI'!C22</f>
         <v>De 60 a 80</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D22</f>
         <v>127976</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="42">
         <f>consolidado!C18</f>
         <v>92730.880209169991</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="42">
         <f>'div+rend ME faixa rend total'!G22</f>
         <v>28670.651327259999</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P22</f>
         <v>6960.4051855099997</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="42">
         <f>consolidado!I18</f>
         <v>16740.178729833999</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="42">
         <f t="shared" si="1"/>
-        <v>6493.9025256243895</v>
-      </c>
-      <c r="I18" s="55">
+        <v>8395.4783783120729</v>
+      </c>
+      <c r="I18" s="52">
         <f t="shared" si="2"/>
-        <v>5734.1302654520005</v>
-      </c>
-      <c r="K18" s="56">
+        <v>6301.2420499472528</v>
+      </c>
+      <c r="K18" s="53">
         <f t="shared" si="3"/>
-        <v>0.14508983070996359</v>
-      </c>
-      <c r="L18" s="56">
+        <v>0.16559622349301886</v>
+      </c>
+      <c r="L18" s="53">
         <f t="shared" si="0"/>
-        <v>0.24236057012067005</v>
+        <v>0.24847624359660428</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -7848,41 +7707,41 @@
         <f>'faixa SM RTT+RTE+RTI'!C23</f>
         <v>De 80 a 160</v>
       </c>
-      <c r="B19" s="46">
+      <c r="B19" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D23</f>
         <v>128933</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="42">
         <f>consolidado!C19</f>
         <v>146398.08645091997</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="42">
         <f>'div+rend ME faixa rend total'!G23</f>
         <v>59701.374346919998</v>
       </c>
-      <c r="E19" s="45">
+      <c r="E19" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P23</f>
         <v>8308.2335983499997</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="42">
         <f>consolidado!I19</f>
         <v>27460.114794183995</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="42">
         <f t="shared" si="1"/>
-        <v>13522.361289577379</v>
-      </c>
-      <c r="I19" s="55">
+        <v>17482.044330416778</v>
+      </c>
+      <c r="I19" s="52">
         <f t="shared" si="2"/>
-        <v>11940.274869384</v>
-      </c>
-      <c r="K19" s="56">
+        <v>13121.181175147254</v>
+      </c>
+      <c r="K19" s="53">
         <f t="shared" si="3"/>
-        <v>0.14911803437571636</v>
-      </c>
-      <c r="L19" s="56">
+        <v>0.17616540320978158</v>
+      </c>
+      <c r="L19" s="53">
         <f t="shared" si="0"/>
-        <v>0.26913186243576342</v>
+        <v>0.27719826777200501</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -7890,41 +7749,41 @@
         <f>'faixa SM RTT+RTE+RTI'!C24</f>
         <v>De 160 a 240</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D24</f>
         <v>29514</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="42">
         <f>consolidado!C20</f>
         <v>60240.626380400005</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="42">
         <f>'div+rend ME faixa rend total'!G24</f>
         <v>29229.617736840002</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P24</f>
         <v>2505.4480861100001</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="42">
         <f>consolidado!I20</f>
         <v>11631.623708080002</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="42">
         <f t="shared" si="1"/>
-        <v>6620.5084173942605</v>
-      </c>
-      <c r="I20" s="55">
+        <v>8559.1576178335617</v>
+      </c>
+      <c r="I20" s="52">
         <f t="shared" si="2"/>
-        <v>5845.923547368001</v>
-      </c>
-      <c r="K20" s="56">
+        <v>6424.0918102945061</v>
+      </c>
+      <c r="K20" s="53">
         <f t="shared" si="3"/>
-        <v>0.15149172662775462</v>
-      </c>
-      <c r="L20" s="56">
+        <v>0.18367348363999683</v>
+      </c>
+      <c r="L20" s="53">
         <f t="shared" si="0"/>
-        <v>0.29012890976735478</v>
+        <v>0.29972655669877213</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -7932,41 +7791,41 @@
         <f>'faixa SM RTT+RTE+RTI'!C25</f>
         <v>De 240 a 320</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D25</f>
         <v>12635</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="42">
         <f>consolidado!C21</f>
         <v>36748.392557939995</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="42">
         <f>'div+rend ME faixa rend total'!G25</f>
         <v>19118.629518149999</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E21" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P25</f>
         <v>1335.2069691699999</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="42">
         <f>consolidado!I21</f>
         <v>7171.3733915879993</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="42">
         <f t="shared" si="1"/>
-        <v>4330.3695858609744</v>
-      </c>
-      <c r="I21" s="55">
+        <v>5598.4092900594369</v>
+      </c>
+      <c r="I21" s="52">
         <f t="shared" si="2"/>
-        <v>3823.7259036300002</v>
-      </c>
-      <c r="K21" s="56">
+        <v>4201.8965973956037</v>
+      </c>
+      <c r="K21" s="53">
         <f t="shared" si="3"/>
-        <v>0.15417209191118345</v>
-      </c>
-      <c r="L21" s="56">
+        <v>0.18867808294736782</v>
+      </c>
+      <c r="L21" s="53">
         <f t="shared" si="0"/>
-        <v>0.29919946234062844</v>
+        <v>0.30949027147382674</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -7974,41 +7833,41 @@
         <f>'faixa SM RTT+RTE+RTI'!C26</f>
         <v>Mais de 320</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D26</f>
         <v>25785</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="42">
         <f>consolidado!C22</f>
         <v>287567.10539758997</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="42">
         <f>'div+rend ME faixa rend total'!G26</f>
         <v>159517.01140113</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P26</f>
         <v>5878.6306524000001</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="42">
         <f>consolidado!I22</f>
         <v>57149.543159517998</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="42">
         <f t="shared" si="1"/>
-        <v>36130.603082355941</v>
-      </c>
-      <c r="I22" s="55">
+        <v>46710.540507247511</v>
+      </c>
+      <c r="I22" s="52">
         <f t="shared" si="2"/>
-        <v>31903.402280226001</v>
-      </c>
-      <c r="K22" s="56">
+        <v>35058.683824424181</v>
+      </c>
+      <c r="K22" s="53">
         <f t="shared" si="3"/>
-        <v>0.14608497615425806</v>
-      </c>
-      <c r="L22" s="56">
+        <v>0.18287617106601181</v>
+      </c>
+      <c r="L22" s="53">
         <f t="shared" si="0"/>
-        <v>0.30967709368781765</v>
+        <v>0.32064942496275844</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -8016,41 +7875,41 @@
         <f>'faixa SM RTT+RTE+RTI'!C27</f>
         <v xml:space="preserve">    Total</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D27</f>
         <v>28003647</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="42">
         <f>consolidado!C23</f>
         <v>2745468.3930904102</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="42">
         <f>'div+rend ME faixa rend total'!G27</f>
         <v>480928.00780113996</v>
       </c>
-      <c r="E23" s="45">
+      <c r="E23" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P27</f>
         <v>153979.55569188998</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="42">
         <f>consolidado!I23</f>
         <v>153906.21215408208</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="42">
         <f t="shared" si="1"/>
-        <v>108930.1937669582</v>
-      </c>
-      <c r="I23" s="55">
+        <v>140827.65839296472</v>
+      </c>
+      <c r="I23" s="52">
         <f t="shared" si="2"/>
-        <v>96185.601560227995</v>
-      </c>
-      <c r="K23" s="56">
+        <v>105698.4632529978</v>
+      </c>
+      <c r="K23" s="53">
         <f t="shared" si="3"/>
-        <v>9.5761346268097555E-2</v>
-      </c>
-      <c r="L23" s="56">
+        <v>0.10737956948504797</v>
+      </c>
+      <c r="L23" s="53">
         <f t="shared" si="0"/>
-        <v>9.1092585273872567E-2</v>
+        <v>9.4557517420500461E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8063,8 +7922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5ED05E4-744F-47E4-A16D-11CFFA5B24A6}">
   <dimension ref="A2:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="J4" workbookViewId="0">
-      <selection activeCell="R4" sqref="R1:T1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8096,12 +7955,12 @@
       <c r="A3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="44">
         <v>14112</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="13" x14ac:dyDescent="0.3">
-      <c r="B4" s="48"/>
+      <c r="B4" s="45"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
@@ -8133,10 +7992,10 @@
       <c r="I5" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="49"/>
+      <c r="K5" s="46"/>
       <c r="L5" t="s">
         <v>47</v>
       </c>
@@ -8158,57 +8017,57 @@
         <f>'faixa SM RTT+RTE+RTI'!C10</f>
         <v>Até 1/2</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D10</f>
         <v>1304128</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="42">
         <f>SUM(D6:F6)</f>
         <v>509.31960864000001</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="42">
         <f>'faixa SM RTT+RTE+RTI'!E10</f>
         <v>308.52941770000001</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="42">
         <f>'faixa SM RTT+RTE+RTI'!F10</f>
         <v>58.601458730000004</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="42">
         <f>'faixa SM RTT+RTE+RTI'!G10</f>
         <v>142.18873221000001</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="42">
         <f>'faixa SM RTT+RTE+RTI'!O10</f>
         <v>243.52648944999999</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P10</f>
         <v>1.2188060000000001E-2</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="42">
         <f>MAX( 0, C6 * 0.2 - ($B$3 * B6 / 10^6) )</f>
         <v>0</v>
       </c>
       <c r="J6" s="15">
-        <f>H6/G6</f>
+        <f t="shared" ref="J6:J23" si="0">H6/G6</f>
         <v>5.0048189942402185E-5</v>
       </c>
       <c r="K6" s="15"/>
-      <c r="L6" s="45">
-        <f>C6*10^6/B6 / 13</f>
+      <c r="L6" s="42">
+        <f t="shared" ref="L6:L23" si="1">C6*10^6/B6 / 13</f>
         <v>30.041860487502877</v>
       </c>
-      <c r="M6" s="52"/>
+      <c r="M6" s="49"/>
       <c r="N6" s="15">
-        <f>H6/C6</f>
+        <f t="shared" ref="N6:N23" si="2">H6/C6</f>
         <v>2.3930082002035837E-5</v>
       </c>
       <c r="O6" s="15">
-        <f>I6/C6</f>
+        <f t="shared" ref="O6:O23" si="3">I6/C6</f>
         <v>0</v>
       </c>
-      <c r="P6" s="51">
+      <c r="P6" s="48">
         <f>O6-N6</f>
         <v>-2.3930082002035837E-5</v>
       </c>
@@ -8218,61 +8077,61 @@
         <f>'faixa SM RTT+RTE+RTI'!C11</f>
         <v>De 1/2 a 1</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D11</f>
         <v>588273</v>
       </c>
-      <c r="C7" s="45">
-        <f t="shared" ref="C7:C22" si="0">SUM(D7:F7)</f>
+      <c r="C7" s="42">
+        <f t="shared" ref="C7:C22" si="4">SUM(D7:F7)</f>
         <v>5622.7779605600008</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="42">
         <f>'faixa SM RTT+RTE+RTI'!E11</f>
         <v>5068.7356959500003</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="42">
         <f>'faixa SM RTT+RTE+RTI'!F11</f>
         <v>120.91874135</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="42">
         <f>'faixa SM RTT+RTE+RTI'!G11</f>
         <v>433.12352325999996</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="42">
         <f>'faixa SM RTT+RTE+RTI'!O11</f>
         <v>4140.3912690100005</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P11</f>
         <v>0.12367</v>
       </c>
-      <c r="I7" s="45">
-        <f>MAX( 0, C7 * 0.2 - ($B$3 * B7 / 10^6) )</f>
+      <c r="I7" s="42">
+        <f t="shared" ref="I6:I23" si="5">MAX( 0, C7 * 0.2 - ($B$3 * B7 / 10^6) )</f>
         <v>0</v>
       </c>
       <c r="J7" s="15">
-        <f>H7/G7</f>
+        <f t="shared" si="0"/>
         <v>2.9869157759471957E-5</v>
       </c>
       <c r="K7" s="15"/>
-      <c r="L7" s="45">
-        <f>C7*10^6/B7 / 13</f>
+      <c r="L7" s="42">
+        <f t="shared" si="1"/>
         <v>735.23921985462277</v>
       </c>
       <c r="M7" s="10">
-        <f t="shared" ref="M7:M23" si="1">F7/C7</f>
+        <f t="shared" ref="M7:M23" si="6">F7/C7</f>
         <v>7.7030166636148478E-2</v>
       </c>
       <c r="N7" s="15">
-        <f>H7/C7</f>
+        <f t="shared" si="2"/>
         <v>2.1994466234921906E-5</v>
       </c>
       <c r="O7" s="15">
-        <f>I7/C7</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P7" s="51">
-        <f t="shared" ref="P7:P23" si="2">O7-N7</f>
+      <c r="P7" s="48">
+        <f t="shared" ref="P7:P23" si="7">O7-N7</f>
         <v>-2.1994466234921906E-5</v>
       </c>
     </row>
@@ -8281,61 +8140,61 @@
         <f>'faixa SM RTT+RTE+RTI'!C12</f>
         <v>De 1 a 2</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D12</f>
         <v>1360094</v>
       </c>
-      <c r="C8" s="45">
-        <f t="shared" si="0"/>
+      <c r="C8" s="42">
+        <f t="shared" si="4"/>
         <v>21952.724546290003</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="42">
         <f>'faixa SM RTT+RTE+RTI'!E12</f>
         <v>17910.356423950001</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="42">
         <f>'faixa SM RTT+RTE+RTI'!F12</f>
         <v>789.45725639</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="42">
         <f>'faixa SM RTT+RTE+RTI'!G12</f>
         <v>3252.9108659499998</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="42">
         <f>'faixa SM RTT+RTE+RTI'!O12</f>
         <v>14680.545884929999</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P12</f>
         <v>0.66146938</v>
       </c>
-      <c r="I8" s="45">
-        <f>MAX( 0, C8 * 0.2 - ($B$3 * B8 / 10^6) )</f>
+      <c r="I8" s="42">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J8" s="15">
-        <f>H8/G8</f>
+        <f t="shared" si="0"/>
         <v>4.5057546577952338E-5</v>
       </c>
       <c r="K8" s="15"/>
-      <c r="L8" s="45">
-        <f>C8*10^6/B8 / 13</f>
+      <c r="L8" s="42">
+        <f t="shared" si="1"/>
         <v>1241.5841250276708</v>
       </c>
       <c r="M8" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.14817800219243127</v>
       </c>
       <c r="N8" s="15">
-        <f>H8/C8</f>
+        <f t="shared" si="2"/>
         <v>3.013153919028187E-5</v>
       </c>
       <c r="O8" s="15">
-        <f>I8/C8</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P8" s="51">
-        <f t="shared" si="2"/>
+      <c r="P8" s="48">
+        <f t="shared" si="7"/>
         <v>-3.013153919028187E-5</v>
       </c>
     </row>
@@ -8344,61 +8203,61 @@
         <f>'faixa SM RTT+RTE+RTI'!C13</f>
         <v>De 2 a 3</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D13</f>
         <v>3994153</v>
       </c>
-      <c r="C9" s="45">
-        <f t="shared" si="0"/>
+      <c r="C9" s="42">
+        <f t="shared" si="4"/>
         <v>108799.99473984001</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="42">
         <f>'faixa SM RTT+RTE+RTI'!E13</f>
         <v>96860.274257270008</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="42">
         <f>'faixa SM RTT+RTE+RTI'!F13</f>
         <v>3587.7032542400002</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="42">
         <f>'faixa SM RTT+RTE+RTI'!G13</f>
         <v>8352.0172283299999</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="42">
         <f>'faixa SM RTT+RTE+RTI'!O13</f>
         <v>77201.568106310006</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P13</f>
         <v>27.00385344</v>
       </c>
-      <c r="I9" s="45">
-        <f>MAX( 0, C9 * 0.2 - ($B$3 * B9 / 10^6) )</f>
+      <c r="I9" s="42">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J9" s="15">
-        <f>H9/G9</f>
+        <f t="shared" si="0"/>
         <v>3.4978374277080081E-4</v>
       </c>
       <c r="K9" s="15"/>
-      <c r="L9" s="45">
-        <f>C9*10^6/B9 / 13</f>
+      <c r="L9" s="42">
+        <f t="shared" si="1"/>
         <v>2095.3704989776497</v>
       </c>
       <c r="M9" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>7.676486794232984E-2</v>
       </c>
       <c r="N9" s="15">
-        <f>H9/C9</f>
+        <f t="shared" si="2"/>
         <v>2.4819719435254553E-4</v>
       </c>
       <c r="O9" s="15">
-        <f>I9/C9</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P9" s="51">
-        <f t="shared" si="2"/>
+      <c r="P9" s="48">
+        <f t="shared" si="7"/>
         <v>-2.4819719435254553E-4</v>
       </c>
     </row>
@@ -8407,61 +8266,61 @@
         <f>'faixa SM RTT+RTE+RTI'!C14</f>
         <v>De 3 a 5</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D14</f>
         <v>7605675</v>
       </c>
-      <c r="C10" s="45">
-        <f t="shared" si="0"/>
+      <c r="C10" s="42">
+        <f t="shared" si="4"/>
         <v>313949.84339061996</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="42">
         <f>'faixa SM RTT+RTE+RTI'!E14</f>
         <v>257552.65549820999</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="42">
         <f>'faixa SM RTT+RTE+RTI'!F14</f>
         <v>20080.589155040001</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="42">
         <f>'faixa SM RTT+RTE+RTI'!G14</f>
         <v>36316.598737369997</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="42">
         <f>'faixa SM RTT+RTE+RTI'!O14</f>
         <v>193810.77897513</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P14</f>
         <v>2796.2595517</v>
       </c>
-      <c r="I10" s="45">
-        <f>MAX( 0, C10 * 0.2 - ($B$3 * B10 / 10^6) )</f>
+      <c r="I10" s="42">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J10" s="15">
-        <f>H10/G10</f>
+        <f t="shared" si="0"/>
         <v>1.4427781398364942E-2</v>
       </c>
       <c r="K10" s="15"/>
-      <c r="L10" s="45">
-        <f>C10*10^6/B10 / 13</f>
+      <c r="L10" s="42">
+        <f t="shared" si="1"/>
         <v>3175.2589945172008</v>
       </c>
       <c r="M10" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.11567643527117315</v>
       </c>
       <c r="N10" s="15">
-        <f>H10/C10</f>
+        <f t="shared" si="2"/>
         <v>8.9067079043605758E-3</v>
       </c>
       <c r="O10" s="15">
-        <f>I10/C10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P10" s="51">
-        <f t="shared" si="2"/>
+      <c r="P10" s="48">
+        <f t="shared" si="7"/>
         <v>-8.9067079043605758E-3</v>
       </c>
     </row>
@@ -8470,61 +8329,61 @@
         <f>'faixa SM RTT+RTE+RTI'!C15</f>
         <v>De 5 a 7</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D15</f>
         <v>4219050</v>
       </c>
-      <c r="C11" s="45">
-        <f t="shared" si="0"/>
+      <c r="C11" s="42">
+        <f t="shared" si="4"/>
         <v>262701.67049710004</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="42">
         <f>'faixa SM RTT+RTE+RTI'!E15</f>
         <v>206200.98409256001</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="42">
         <f>'faixa SM RTT+RTE+RTI'!F15</f>
         <v>18507.156242810001</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="42">
         <f>'faixa SM RTT+RTE+RTI'!G15</f>
         <v>37993.530161729999</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="42">
         <f>'faixa SM RTT+RTE+RTI'!O15</f>
         <v>152380.20754520001</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P15</f>
         <v>6862.5226710400002</v>
       </c>
-      <c r="I11" s="45">
-        <f>MAX( 0, C11 * 0.2 - ($B$3 * B11 / 10^6) )</f>
+      <c r="I11" s="42">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J11" s="15">
-        <f>H11/G11</f>
+        <f t="shared" si="0"/>
         <v>4.5035525161654565E-2</v>
       </c>
       <c r="K11" s="15"/>
-      <c r="L11" s="45">
-        <f>C11*10^6/B11 / 13</f>
+      <c r="L11" s="42">
+        <f t="shared" si="1"/>
         <v>4789.6613710359516</v>
       </c>
       <c r="M11" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.14462614603796137</v>
       </c>
       <c r="N11" s="15">
-        <f>H11/C11</f>
+        <f t="shared" si="2"/>
         <v>2.6122874125826145E-2</v>
       </c>
       <c r="O11" s="15">
-        <f>I11/C11</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P11" s="51">
-        <f t="shared" si="2"/>
+      <c r="P11" s="48">
+        <f t="shared" si="7"/>
         <v>-2.6122874125826145E-2</v>
       </c>
     </row>
@@ -8533,61 +8392,61 @@
         <f>'faixa SM RTT+RTE+RTI'!C16</f>
         <v>De 7 a 10</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D16</f>
         <v>3202633</v>
       </c>
-      <c r="C12" s="45">
-        <f t="shared" si="0"/>
+      <c r="C12" s="42">
+        <f t="shared" si="4"/>
         <v>281299.67879360996</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="42">
         <f>'faixa SM RTT+RTE+RTI'!E16</f>
         <v>212317.10755232</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="42">
         <f>'faixa SM RTT+RTE+RTI'!F16</f>
         <v>21016.68543885</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="42">
         <f>'faixa SM RTT+RTE+RTI'!G16</f>
         <v>47965.885802439996</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="42">
         <f>'faixa SM RTT+RTE+RTI'!O16</f>
         <v>157759.32250193998</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P16</f>
         <v>13964.630746500003</v>
       </c>
-      <c r="I12" s="45">
-        <f>MAX( 0, C12 * 0.2 - ($B$3 * B12 / 10^6) )</f>
+      <c r="I12" s="42">
+        <f t="shared" si="5"/>
         <v>11064.378862721991</v>
       </c>
       <c r="J12" s="15">
-        <f>H12/G12</f>
+        <f t="shared" si="0"/>
         <v>8.8518577064301718E-2</v>
       </c>
       <c r="K12" s="15"/>
-      <c r="L12" s="45">
-        <f>C12*10^6/B12 / 13</f>
+      <c r="L12" s="42">
+        <f t="shared" si="1"/>
         <v>6756.4522161227005</v>
       </c>
       <c r="M12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.17051525265918505</v>
       </c>
       <c r="N12" s="15">
-        <f>H12/C12</f>
+        <f t="shared" si="2"/>
         <v>4.9643251660965726E-2</v>
       </c>
       <c r="O12" s="15">
-        <f>I12/C12</f>
+        <f t="shared" si="3"/>
         <v>3.9333066110039692E-2</v>
       </c>
-      <c r="P12" s="51">
-        <f t="shared" si="2"/>
+      <c r="P12" s="48">
+        <f t="shared" si="7"/>
         <v>-1.0310185550926033E-2</v>
       </c>
     </row>
@@ -8596,61 +8455,61 @@
         <f>'faixa SM RTT+RTE+RTI'!C17</f>
         <v>De 10 a 15</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D17</f>
         <v>2441109</v>
       </c>
-      <c r="C13" s="45">
-        <f t="shared" si="0"/>
+      <c r="C13" s="42">
+        <f t="shared" si="4"/>
         <v>313189.14796660002</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="42">
         <f>'faixa SM RTT+RTE+RTI'!E17</f>
         <v>223342.95986524</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="42">
         <f>'faixa SM RTT+RTE+RTI'!F17</f>
         <v>24636.214125319999</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="42">
         <f>'faixa SM RTT+RTE+RTI'!G17</f>
         <v>65209.973976039997</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="42">
         <f>'faixa SM RTT+RTE+RTI'!O17</f>
         <v>173210.67037305998</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P17</f>
         <v>24781.567428510003</v>
       </c>
-      <c r="I13" s="45">
-        <f>MAX( 0, C13 * 0.2 - ($B$3 * B13 / 10^6) )</f>
+      <c r="I13" s="42">
+        <f t="shared" si="5"/>
         <v>28188.899385320008</v>
       </c>
       <c r="J13" s="15">
-        <f>H13/G13</f>
+        <f t="shared" si="0"/>
         <v>0.14307182909191235</v>
       </c>
       <c r="K13" s="15"/>
-      <c r="L13" s="45">
-        <f>C13*10^6/B13 / 13</f>
+      <c r="L13" s="42">
+        <f t="shared" si="1"/>
         <v>9869.0689029075293</v>
       </c>
       <c r="M13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.20821275066336045</v>
       </c>
       <c r="N13" s="15">
-        <f>H13/C13</f>
+        <f t="shared" si="2"/>
         <v>7.9126520153734142E-2</v>
       </c>
       <c r="O13" s="15">
-        <f>I13/C13</f>
+        <f t="shared" si="3"/>
         <v>9.0005990208594983E-2</v>
       </c>
-      <c r="P13" s="51">
-        <f t="shared" si="2"/>
+      <c r="P13" s="48">
+        <f t="shared" si="7"/>
         <v>1.087947005486084E-2</v>
       </c>
     </row>
@@ -8659,61 +8518,61 @@
         <f>'faixa SM RTT+RTE+RTI'!C18</f>
         <v>De 15 a 20</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D18</f>
         <v>1121037</v>
       </c>
-      <c r="C14" s="45">
-        <f t="shared" si="0"/>
+      <c r="C14" s="42">
+        <f t="shared" si="4"/>
         <v>203981.40950429998</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="42">
         <f>'faixa SM RTT+RTE+RTI'!E18</f>
         <v>136707.93950184999</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="42">
         <f>'faixa SM RTT+RTE+RTI'!F18</f>
         <v>17457.871441069998</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="42">
         <f>'faixa SM RTT+RTE+RTI'!G18</f>
         <v>49815.59856138</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="42">
         <f>'faixa SM RTT+RTE+RTI'!O18</f>
         <v>109576.216223</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P18</f>
         <v>19690.858338270002</v>
       </c>
-      <c r="I14" s="45">
-        <f>MAX( 0, C14 * 0.2 - ($B$3 * B14 / 10^6) )</f>
+      <c r="I14" s="42">
+        <f t="shared" si="5"/>
         <v>24976.20775686</v>
       </c>
       <c r="J14" s="15">
-        <f>H14/G14</f>
+        <f t="shared" si="0"/>
         <v>0.17970011209546494</v>
       </c>
       <c r="K14" s="15"/>
-      <c r="L14" s="45">
-        <f>C14*10^6/B14 / 13</f>
+      <c r="L14" s="42">
+        <f t="shared" si="1"/>
         <v>13996.75269788323</v>
       </c>
       <c r="M14" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.24421636600334343</v>
       </c>
       <c r="N14" s="15">
-        <f>H14/C14</f>
+        <f t="shared" si="2"/>
         <v>9.6532612389144776E-2</v>
       </c>
       <c r="O14" s="15">
-        <f>I14/C14</f>
+        <f t="shared" si="3"/>
         <v>0.12244354923105624</v>
       </c>
-      <c r="P14" s="51">
-        <f t="shared" si="2"/>
+      <c r="P14" s="48">
+        <f t="shared" si="7"/>
         <v>2.5910936841911467E-2</v>
       </c>
     </row>
@@ -8722,61 +8581,61 @@
         <f>'faixa SM RTT+RTE+RTI'!C19</f>
         <v>De 20 a 30</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D19</f>
         <v>1038518</v>
       </c>
-      <c r="C15" s="45">
-        <f t="shared" si="0"/>
+      <c r="C15" s="42">
+        <f t="shared" si="4"/>
         <v>266269.90166263992</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="42">
         <f>'faixa SM RTT+RTE+RTI'!E19</f>
         <v>165628.81699164998</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="42">
         <f>'faixa SM RTT+RTE+RTI'!F19</f>
         <v>24915.11224522</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="42">
         <f>'faixa SM RTT+RTE+RTI'!G19</f>
         <v>75725.972425769985</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="42">
         <f>'faixa SM RTT+RTE+RTI'!O19</f>
         <v>135227.28592152998</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P19</f>
         <v>27619.600207700001</v>
       </c>
-      <c r="I15" s="45">
-        <f>MAX( 0, C15 * 0.2 - ($B$3 * B15 / 10^6) )</f>
+      <c r="I15" s="42">
+        <f t="shared" si="5"/>
         <v>38598.414316527982</v>
       </c>
       <c r="J15" s="15">
-        <f>H15/G15</f>
+        <f t="shared" si="0"/>
         <v>0.20424576312007897</v>
       </c>
       <c r="K15" s="15"/>
-      <c r="L15" s="45">
-        <f>C15*10^6/B15 / 13</f>
+      <c r="L15" s="42">
+        <f t="shared" si="1"/>
         <v>19722.624093078193</v>
       </c>
       <c r="M15" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.28439553983729521</v>
       </c>
       <c r="N15" s="15">
-        <f>H15/C15</f>
+        <f t="shared" si="2"/>
         <v>0.10372783418342803</v>
       </c>
       <c r="O15" s="15">
-        <f>I15/C15</f>
+        <f t="shared" si="3"/>
         <v>0.14495973474850946</v>
       </c>
-      <c r="P15" s="51">
-        <f t="shared" si="2"/>
+      <c r="P15" s="48">
+        <f t="shared" si="7"/>
         <v>4.1231900565081428E-2</v>
       </c>
     </row>
@@ -8785,61 +8644,61 @@
         <f>'faixa SM RTT+RTE+RTI'!C20</f>
         <v>De 30 a 40</v>
       </c>
-      <c r="B16" s="46">
+      <c r="B16" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D20</f>
         <v>449733</v>
       </c>
-      <c r="C16" s="45">
-        <f t="shared" si="0"/>
+      <c r="C16" s="42">
+        <f t="shared" si="4"/>
         <v>163279.14443543</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="42">
         <f>'faixa SM RTT+RTE+RTI'!E20</f>
         <v>91659.39267406</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="42">
         <f>'faixa SM RTT+RTE+RTI'!F20</f>
         <v>16648.913161830002</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="42">
         <f>'faixa SM RTT+RTE+RTI'!G20</f>
         <v>54970.838599540002</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="42">
         <f>'faixa SM RTT+RTE+RTI'!O20</f>
         <v>75525.40134266</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P20</f>
         <v>16701.087346730001</v>
       </c>
-      <c r="I16" s="45">
-        <f>MAX( 0, C16 * 0.2 - ($B$3 * B16 / 10^6) )</f>
+      <c r="I16" s="42">
+        <f t="shared" si="5"/>
         <v>26309.196791086</v>
       </c>
       <c r="J16" s="15">
-        <f>H16/G16</f>
+        <f t="shared" si="0"/>
         <v>0.22113205689509532</v>
       </c>
       <c r="K16" s="15"/>
-      <c r="L16" s="45">
-        <f>C16*10^6/B16 / 13</f>
+      <c r="L16" s="42">
+        <f t="shared" si="1"/>
         <v>27927.535198308258</v>
       </c>
       <c r="M16" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.33666785056727588</v>
       </c>
       <c r="N16" s="15">
-        <f>H16/C16</f>
+        <f t="shared" si="2"/>
         <v>0.10228549031462236</v>
       </c>
       <c r="O16" s="15">
-        <f>I16/C16</f>
+        <f t="shared" si="3"/>
         <v>0.16113017300559274</v>
       </c>
-      <c r="P16" s="51">
-        <f t="shared" si="2"/>
+      <c r="P16" s="48">
+        <f t="shared" si="7"/>
         <v>5.8844682690970374E-2</v>
       </c>
     </row>
@@ -8848,61 +8707,61 @@
         <f>'faixa SM RTT+RTE+RTI'!C21</f>
         <v>De 40 a 60</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D21</f>
         <v>354401</v>
       </c>
-      <c r="C17" s="45">
-        <f t="shared" si="0"/>
+      <c r="C17" s="42">
+        <f t="shared" si="4"/>
         <v>180227.68898876</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="42">
         <f>'faixa SM RTT+RTE+RTI'!E21</f>
         <v>86116.207045850009</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="42">
         <f>'faixa SM RTT+RTE+RTI'!F21</f>
         <v>20764.192340409998</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="42">
         <f>'faixa SM RTT+RTE+RTI'!G21</f>
         <v>73347.289602500008</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="42">
         <f>'faixa SM RTT+RTE+RTI'!O21</f>
         <v>71431.719984700001</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P21</f>
         <v>16547.303729020001</v>
       </c>
-      <c r="I17" s="45">
-        <f>MAX( 0, C17 * 0.2 - ($B$3 * B17 / 10^6) )</f>
+      <c r="I17" s="42">
+        <f t="shared" si="5"/>
         <v>31044.230885752004</v>
       </c>
       <c r="J17" s="15">
-        <f>H17/G17</f>
+        <f t="shared" si="0"/>
         <v>0.23165204103393111</v>
       </c>
       <c r="K17" s="15"/>
-      <c r="L17" s="45">
-        <f>C17*10^6/B17 / 13</f>
+      <c r="L17" s="42">
+        <f t="shared" si="1"/>
         <v>39118.592734644568</v>
       </c>
       <c r="M17" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.40697014989230845</v>
       </c>
       <c r="N17" s="15">
-        <f>H17/C17</f>
+        <f t="shared" si="2"/>
         <v>9.1813326919217078E-2</v>
       </c>
       <c r="O17" s="15">
-        <f>I17/C17</f>
+        <f t="shared" si="3"/>
         <v>0.17225006357201914</v>
       </c>
-      <c r="P17" s="51">
-        <f t="shared" si="2"/>
+      <c r="P17" s="48">
+        <f t="shared" si="7"/>
         <v>8.0436736652802057E-2</v>
       </c>
     </row>
@@ -8911,61 +8770,61 @@
         <f>'faixa SM RTT+RTE+RTI'!C22</f>
         <v>De 60 a 80</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D22</f>
         <v>127976</v>
       </c>
-      <c r="C18" s="45">
-        <f t="shared" si="0"/>
+      <c r="C18" s="42">
+        <f t="shared" si="4"/>
         <v>92730.880209169991</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="42">
         <f>'faixa SM RTT+RTE+RTI'!E22</f>
         <v>34733.039489329996</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="42">
         <f>'faixa SM RTT+RTE+RTI'!F22</f>
         <v>12006.454603679998</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="42">
         <f>'faixa SM RTT+RTE+RTI'!G22</f>
         <v>45991.38611616</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="42">
         <f>'faixa SM RTT+RTE+RTI'!O22</f>
         <v>29054.272777160004</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P22</f>
         <v>6960.4051855099997</v>
       </c>
-      <c r="I18" s="45">
-        <f>MAX( 0, C18 * 0.2 - ($B$3 * B18 / 10^6) )</f>
+      <c r="I18" s="42">
+        <f t="shared" si="5"/>
         <v>16740.178729833999</v>
       </c>
       <c r="J18" s="15">
-        <f>H18/G18</f>
+        <f t="shared" si="0"/>
         <v>0.23956563080737914</v>
       </c>
       <c r="K18" s="15"/>
-      <c r="L18" s="45">
-        <f>C18*10^6/B18 / 13</f>
+      <c r="L18" s="42">
+        <f t="shared" si="1"/>
         <v>55738.143335270797</v>
       </c>
       <c r="M18" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.49596624136877321</v>
       </c>
       <c r="N18" s="15">
-        <f>H18/C18</f>
+        <f t="shared" si="2"/>
         <v>7.5060273015953721E-2</v>
       </c>
       <c r="O18" s="15">
-        <f>I18/C18</f>
+        <f t="shared" si="3"/>
         <v>0.18052431608622424</v>
       </c>
-      <c r="P18" s="51">
-        <f t="shared" si="2"/>
+      <c r="P18" s="48">
+        <f t="shared" si="7"/>
         <v>0.10546404307027052</v>
       </c>
     </row>
@@ -8974,61 +8833,61 @@
         <f>'faixa SM RTT+RTE+RTI'!C23</f>
         <v>De 80 a 160</v>
       </c>
-      <c r="B19" s="46">
+      <c r="B19" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D23</f>
         <v>128933</v>
       </c>
-      <c r="C19" s="45">
-        <f t="shared" si="0"/>
+      <c r="C19" s="42">
+        <f t="shared" si="4"/>
         <v>146398.08645091997</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="42">
         <f>'faixa SM RTT+RTE+RTI'!E23</f>
         <v>39635.446837149997</v>
       </c>
-      <c r="E19" s="45">
+      <c r="E19" s="42">
         <f>'faixa SM RTT+RTE+RTI'!F23</f>
         <v>20753.409556729999</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="42">
         <f>'faixa SM RTT+RTE+RTI'!G23</f>
         <v>86009.230057039997</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="42">
         <f>'faixa SM RTT+RTE+RTI'!O23</f>
         <v>33661.359032889995</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P23</f>
         <v>8308.2335983499997</v>
       </c>
-      <c r="I19" s="45">
-        <f>MAX( 0, C19 * 0.2 - ($B$3 * B19 / 10^6) )</f>
+      <c r="I19" s="42">
+        <f t="shared" si="5"/>
         <v>27460.114794183995</v>
       </c>
       <c r="J19" s="15">
-        <f>H19/G19</f>
+        <f t="shared" si="0"/>
         <v>0.24681812728452682</v>
       </c>
       <c r="K19" s="15"/>
-      <c r="L19" s="45">
-        <f>C19*10^6/B19 / 13</f>
+      <c r="L19" s="42">
+        <f t="shared" si="1"/>
         <v>87342.970887634525</v>
       </c>
       <c r="M19" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.58750241988903751</v>
       </c>
       <c r="N19" s="15">
-        <f>H19/C19</f>
+        <f t="shared" si="2"/>
         <v>5.6750971271303734E-2</v>
       </c>
       <c r="O19" s="15">
-        <f>I19/C19</f>
+        <f t="shared" si="3"/>
         <v>0.18757154181376551</v>
       </c>
-      <c r="P19" s="51">
-        <f t="shared" si="2"/>
+      <c r="P19" s="48">
+        <f t="shared" si="7"/>
         <v>0.13082057054246177</v>
       </c>
     </row>
@@ -9037,61 +8896,61 @@
         <f>'faixa SM RTT+RTE+RTI'!C24</f>
         <v>De 160 a 240</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D24</f>
         <v>29514</v>
       </c>
-      <c r="C20" s="45">
-        <f t="shared" si="0"/>
+      <c r="C20" s="42">
+        <f t="shared" si="4"/>
         <v>60240.626380400005</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="42">
         <f>'faixa SM RTT+RTE+RTI'!E24</f>
         <v>11650.078464499999</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="42">
         <f>'faixa SM RTT+RTE+RTI'!F24</f>
         <v>9268.3152078700004</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="42">
         <f>'faixa SM RTT+RTE+RTI'!G24</f>
         <v>39322.232708030002</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="42">
         <f>'faixa SM RTT+RTE+RTI'!O24</f>
         <v>9888.1497887499991</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P24</f>
         <v>2505.4480861100001</v>
       </c>
-      <c r="I20" s="45">
-        <f>MAX( 0, C20 * 0.2 - ($B$3 * B20 / 10^6) )</f>
+      <c r="I20" s="42">
+        <f t="shared" si="5"/>
         <v>11631.623708080002</v>
       </c>
       <c r="J20" s="15">
-        <f>H20/G20</f>
+        <f t="shared" si="0"/>
         <v>0.25337885647328201</v>
       </c>
       <c r="K20" s="15"/>
-      <c r="L20" s="45">
-        <f>C20*10^6/B20 / 13</f>
+      <c r="L20" s="42">
+        <f t="shared" si="1"/>
         <v>157006.65233292154</v>
       </c>
       <c r="M20" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.65275271972975291</v>
       </c>
       <c r="N20" s="15">
-        <f>H20/C20</f>
+        <f t="shared" si="2"/>
         <v>4.1590671223916374E-2</v>
       </c>
       <c r="O20" s="15">
-        <f>I20/C20</f>
+        <f t="shared" si="3"/>
         <v>0.19308603523857926</v>
       </c>
-      <c r="P20" s="51">
-        <f t="shared" si="2"/>
+      <c r="P20" s="48">
+        <f t="shared" si="7"/>
         <v>0.15149536401466288</v>
       </c>
     </row>
@@ -9100,61 +8959,61 @@
         <f>'faixa SM RTT+RTE+RTI'!C25</f>
         <v>De 240 a 320</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D25</f>
         <v>12635</v>
       </c>
-      <c r="C21" s="45">
-        <f t="shared" si="0"/>
+      <c r="C21" s="42">
+        <f t="shared" si="4"/>
         <v>36748.392557939995</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="42">
         <f>'faixa SM RTT+RTE+RTI'!E25</f>
         <v>6228.7957503999996</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E21" s="42">
         <f>'faixa SM RTT+RTE+RTI'!F25</f>
         <v>5972.3537227699999</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="42">
         <f>'faixa SM RTT+RTE+RTI'!G25</f>
         <v>24547.243084769998</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="42">
         <f>'faixa SM RTT+RTE+RTI'!O25</f>
         <v>5200.2389539400001</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P25</f>
         <v>1335.2069691699999</v>
       </c>
-      <c r="I21" s="45">
-        <f>MAX( 0, C21 * 0.2 - ($B$3 * B21 / 10^6) )</f>
+      <c r="I21" s="42">
+        <f t="shared" si="5"/>
         <v>7171.3733915879993</v>
       </c>
       <c r="J21" s="15">
-        <f>H21/G21</f>
+        <f t="shared" si="0"/>
         <v>0.25675877224033528</v>
       </c>
       <c r="K21" s="15"/>
-      <c r="L21" s="45">
-        <f>C21*10^6/B21 / 13</f>
+      <c r="L21" s="42">
+        <f t="shared" si="1"/>
         <v>223727.6950956744</v>
       </c>
       <c r="M21" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.66798141023630242</v>
       </c>
       <c r="N21" s="15">
-        <f>H21/C21</f>
+        <f t="shared" si="2"/>
         <v>3.6333751661785547E-2</v>
       </c>
       <c r="O21" s="15">
-        <f>I21/C21</f>
+        <f t="shared" si="3"/>
         <v>0.1951479477716237</v>
       </c>
-      <c r="P21" s="51">
-        <f t="shared" si="2"/>
+      <c r="P21" s="48">
+        <f t="shared" si="7"/>
         <v>0.15881419610983816</v>
       </c>
     </row>
@@ -9163,61 +9022,61 @@
         <f>'faixa SM RTT+RTE+RTI'!C26</f>
         <v>Mais de 320</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D26</f>
         <v>25785</v>
       </c>
-      <c r="C22" s="45">
-        <f t="shared" si="0"/>
+      <c r="C22" s="42">
+        <f t="shared" si="4"/>
         <v>287567.10539758997</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="42">
         <f>'faixa SM RTT+RTE+RTI'!E26</f>
         <v>28174.63316723</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="42">
         <f>'faixa SM RTT+RTE+RTI'!F26</f>
         <v>64739.675842559998</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="42">
         <f>'faixa SM RTT+RTE+RTI'!G26</f>
         <v>194652.79638779999</v>
       </c>
-      <c r="G22" s="45">
+      <c r="G22" s="42">
         <f>'faixa SM RTT+RTE+RTI'!O26</f>
         <v>22222.816447039997</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P26</f>
         <v>5878.6306524000001</v>
       </c>
-      <c r="I22" s="45">
-        <f>MAX( 0, C22 * 0.2 - ($B$3 * B22 / 10^6) )</f>
+      <c r="I22" s="42">
+        <f t="shared" si="5"/>
         <v>57149.543159517998</v>
       </c>
       <c r="J22" s="15">
-        <f>H22/G22</f>
+        <f t="shared" si="0"/>
         <v>0.26453130575998679</v>
       </c>
       <c r="K22" s="15"/>
-      <c r="L22" s="45">
-        <f>C22*10^6/B22 / 13</f>
+      <c r="L22" s="42">
+        <f t="shared" si="1"/>
         <v>857884.29587145161</v>
       </c>
       <c r="M22" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.67689521066282332</v>
       </c>
       <c r="N22" s="15">
-        <f>H22/C22</f>
+        <f t="shared" si="2"/>
         <v>2.0442639446790034E-2</v>
       </c>
       <c r="O22" s="15">
-        <f>I22/C22</f>
+        <f t="shared" si="3"/>
         <v>0.19873463301897171</v>
       </c>
-      <c r="P22" s="51">
-        <f t="shared" si="2"/>
+      <c r="P22" s="48">
+        <f t="shared" si="7"/>
         <v>0.17829199357218167</v>
       </c>
     </row>
@@ -9226,61 +9085,61 @@
         <f>'faixa SM RTT+RTE+RTI'!C27</f>
         <v xml:space="preserve">    Total</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="43">
         <f>'faixa SM RTT+RTE+RTI'!D27</f>
         <v>28003647</v>
       </c>
-      <c r="C23" s="45">
-        <f t="shared" ref="C23" si="3">SUM(D23:F23)</f>
+      <c r="C23" s="42">
+        <f t="shared" ref="C23" si="8">SUM(D23:F23)</f>
         <v>2745468.3930904102</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="42">
         <f>'faixa SM RTT+RTE+RTI'!E27</f>
         <v>1620095.9527252202</v>
       </c>
-      <c r="E23" s="45">
+      <c r="E23" s="42">
         <f>'faixa SM RTT+RTE+RTI'!F27</f>
         <v>281323.62379487004</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="42">
         <f>'faixa SM RTT+RTE+RTI'!G27</f>
         <v>844048.81657032017</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="42">
         <f>'faixa SM RTT+RTE+RTI'!O27</f>
         <v>1265214.4716167001</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="42">
         <f>'faixa SM RTT+RTE+RTI'!P27</f>
         <v>153979.55569188998</v>
       </c>
-      <c r="I23" s="45">
-        <f>MAX( 0, C23 * 0.2 - ($B$3 * B23 / 10^6) )</f>
+      <c r="I23" s="42">
+        <f t="shared" si="5"/>
         <v>153906.21215408208</v>
       </c>
       <c r="J23" s="15">
-        <f>H23/G23</f>
+        <f t="shared" si="0"/>
         <v>0.12170233517415732</v>
       </c>
       <c r="K23" s="15"/>
-      <c r="L23" s="45">
-        <f>C23*10^6/B23 / 13</f>
+      <c r="L23" s="42">
+        <f t="shared" si="1"/>
         <v>7541.513303305459</v>
       </c>
-      <c r="M23" s="52">
-        <f t="shared" si="1"/>
+      <c r="M23" s="49">
+        <f t="shared" si="6"/>
         <v>0.3074334487676344</v>
       </c>
       <c r="N23" s="15">
-        <f>H23/C23</f>
+        <f t="shared" si="2"/>
         <v>5.6084985745752609E-2</v>
       </c>
-      <c r="O23" s="50">
-        <f>I23/C23</f>
+      <c r="O23" s="47">
+        <f t="shared" si="3"/>
         <v>5.6058271346857147E-2</v>
       </c>
-      <c r="P23" s="51">
-        <f t="shared" si="2"/>
+      <c r="P23" s="48">
+        <f t="shared" si="7"/>
         <v>-2.6714398895462399E-5</v>
       </c>
     </row>
@@ -11320,52 +11179,52 @@
     <row r="8" spans="1:23" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="42" t="s">
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="42" t="s">
+      <c r="P8" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="Q8" s="42" t="s">
+      <c r="Q8" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="42" t="s">
+      <c r="R8" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="S8" s="42" t="s">
+      <c r="S8" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="T8" s="42" t="s">
+      <c r="T8" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="U8" s="42" t="s">
+      <c r="U8" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="V8" s="42" t="s">
+      <c r="V8" s="54" t="s">
         <v>25</v>
       </c>
       <c r="W8" s="1"/>
@@ -11373,11 +11232,11 @@
     <row r="9" spans="1:23" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="19" t="s">
         <v>20</v>
       </c>
@@ -11399,14 +11258,14 @@
       <c r="N9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -15202,52 +15061,52 @@
     <row r="8" spans="1:23" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="42" t="s">
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="42" t="s">
+      <c r="P8" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="Q8" s="42" t="s">
+      <c r="Q8" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="42" t="s">
+      <c r="R8" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="S8" s="42" t="s">
+      <c r="S8" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="T8" s="42" t="s">
+      <c r="T8" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="U8" s="42" t="s">
+      <c r="U8" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="V8" s="42" t="s">
+      <c r="V8" s="54" t="s">
         <v>25</v>
       </c>
       <c r="W8" s="34"/>
@@ -15255,11 +15114,11 @@
     <row r="9" spans="1:23" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="19" t="s">
         <v>20</v>
       </c>
@@ -15281,14 +15140,14 @@
       <c r="N9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
       <c r="W9" s="34"/>
     </row>
     <row r="10" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
